--- a/biology/Botanique/Pentas/Pentas.xlsx
+++ b/biology/Botanique/Pentas/Pentas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pentas est un genre de plantes de la famille Rubiaceae originaire d'Afrique de l'Est.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plantes du genre Pentas sont des plantes herbacées ou des sous-arbrisseaux, aux feuilles opposées ou verticillées[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes du genre Pentas sont des plantes herbacées ou des sous-arbrisseaux, aux feuilles opposées ou verticillées.
 Les fleurs hermaphrodites, sont constituées d'un calice à (4 ou) 5 lobes, d'une corolle de couleur blanche, rose, rouge pourpre ou jaune, comportant généralement un long tube se terminant en (4 ou) 5 (ou 6) lobes, avec le même nombre d'étamines insérées dans le tube.
 Le fruit est une capsule.
 Il y a environ 50 espèces, répandues en Afrique et Madagascar.
@@ -545,7 +559,9 @@
           <t>Principale espèce</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pentas lanceolata (Penta lancéolé, Étoile égyptienne)</t>
         </is>
@@ -575,9 +591,11 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (7 juin 2013)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (7 juin 2013) :
 Pentas angustifolia
 Pentas arvensis
 Pentas caffensis
@@ -594,9 +612,9 @@
 Pentas suswaensis
 Pentas tibestica
 Pentas zanzibarica
-Selon ITIS      (7 juin 2013)[3] :
+Selon ITIS      (7 juin 2013) :
 Pentas lanceolata (Forssk.) Deflers
-Selon World Checklist of Selected Plant Families (WCSP)  (7 juin 2013)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (7 juin 2013) :
 Pentas angustifolia (A.Rich.) Verdc. (1953)
 Pentas arvensis Hiern (1877)
 Pentas caffensis Chiov., Atti Reale Accad. Italia (1940)
@@ -624,7 +642,7 @@
 Pentas zanzibarica (Klotzsch) Vatke (1875)
 sous-espèce Pentas zanzibarica subsp. milangiana (Verdc.) Verdc. (1989)
 sous-espèce Pentas zanzibarica subsp. zanzibarica
-Selon NCBI  (7 juin 2013)[5] :
+Selon NCBI  (7 juin 2013) :
 Pentas angustifolia
 Pentas arvensis
 Pentas caffensis
@@ -638,7 +656,7 @@
 Pentas purpurea
 Pentas suswaensis
 Pentas zanzibarica
-Selon Tropicos                                           (7 juin 2013)[6] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (7 juin 2013) (Attention liste brute contenant possiblement des synonymes) :
 Pentas ainsworthii Scott-Elliot
 Pentas angustifolia Verdc.
 Pentas arvensis Hiern
